--- a/Team-Data/2008-09/1-17-2008-09.xlsx
+++ b/Team-Data/2008-09/1-17-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,28 +811,28 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -783,16 +850,16 @@
         <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>18</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -813,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -863,49 +930,49 @@
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J3" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.481</v>
+        <v>0.479</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378</v>
+        <v>0.373</v>
       </c>
       <c r="O3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P3" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U3" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="V3" t="n">
         <v>16.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
         <v>5</v>
@@ -914,22 +981,22 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>4</v>
@@ -941,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>5</v>
@@ -965,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -986,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -995,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -1030,97 +1097,97 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.385</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J4" t="n">
-        <v>75.7</v>
+        <v>75.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
         <v>5.3</v>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
         <v>15.5</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG4" t="n">
         <v>22</v>
       </c>
-      <c r="AA4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>20</v>
-      </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1141,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>14</v>
@@ -1150,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU4" t="n">
         <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>21</v>
@@ -1177,13 +1244,13 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1282,25 @@
         <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.2</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="L5" t="n">
         <v>6.3</v>
@@ -1242,61 +1309,61 @@
         <v>16.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U5" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1305,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1323,10 +1390,10 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1335,34 +1402,34 @@
         <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AT5" t="n">
         <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
         <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.838</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M6" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="O6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
@@ -1445,34 +1512,34 @@
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W6" t="n">
         <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
@@ -1496,25 +1563,25 @@
         <v>3</v>
       </c>
       <c r="AL6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM6" t="n">
         <v>7</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>6</v>
       </c>
       <c r="AN6" t="n">
         <v>16</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
@@ -1535,13 +1602,13 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
         <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.575</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N7" t="n">
         <v>0.333</v>
       </c>
       <c r="O7" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P7" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
         <v>44.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
         <v>13.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1642,31 +1709,31 @@
         <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE7" t="n">
         <v>12</v>
       </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1687,31 +1754,31 @@
         <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS7" t="n">
         <v>3</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>4</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
@@ -1726,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
         <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.659</v>
+        <v>0.675</v>
       </c>
       <c r="H8" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>6.8</v>
@@ -1788,37 +1855,37 @@
         <v>18</v>
       </c>
       <c r="N8" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="P8" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S8" t="n">
         <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W8" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y8" t="n">
         <v>5.8</v>
@@ -1827,34 +1894,34 @@
         <v>22.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.8</v>
+        <v>104.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
         <v>24</v>
@@ -1884,16 +1951,16 @@
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
         <v>5</v>
@@ -1905,13 +1972,13 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,88 +2025,88 @@
         <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M9" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="P9" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R9" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S9" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U9" t="n">
         <v>20.1</v>
       </c>
       <c r="V9" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W9" t="n">
         <v>6.7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG9" t="n">
         <v>13</v>
       </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>14</v>
-      </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>24</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2051,7 +2118,7 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
         <v>25</v>
@@ -2060,13 +2127,13 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>21</v>
@@ -2075,22 +2142,22 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2291,7 @@
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
         <v>14</v>
@@ -2239,13 +2306,13 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>8</v>
@@ -2257,13 +2324,13 @@
         <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J11" t="n">
-        <v>79</v>
+        <v>79.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.443</v>
+        <v>0.44</v>
       </c>
       <c r="L11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="O11" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P11" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
         <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
         <v>3.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2397,13 +2464,13 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK11" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>25</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
@@ -2415,43 +2482,43 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2600,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2615,25 +2682,25 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY12" t="n">
         <v>23</v>
       </c>
-      <c r="AW12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>24</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2735,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>0.231</v>
+        <v>0.211</v>
       </c>
       <c r="H13" t="n">
         <v>48.8</v>
       </c>
       <c r="I13" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J13" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.428</v>
+        <v>0.425</v>
       </c>
       <c r="L13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M13" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N13" t="n">
         <v>0.314</v>
       </c>
       <c r="O13" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S13" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T13" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U13" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V13" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y13" t="n">
         <v>5.7</v>
@@ -2740,13 +2807,13 @@
         <v>19.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.1</v>
+        <v>-7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2773,7 +2840,7 @@
         <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
         <v>30</v>
@@ -2782,7 +2849,7 @@
         <v>25</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>25</v>
@@ -2794,10 +2861,10 @@
         <v>18</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV13" t="n">
         <v>19</v>
@@ -2809,13 +2876,13 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.789</v>
+        <v>0.795</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
@@ -2868,7 +2935,7 @@
         <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
@@ -2877,31 +2944,31 @@
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.378</v>
+        <v>0.383</v>
       </c>
       <c r="O14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
         <v>13.7</v>
@@ -2910,28 +2977,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2958,16 +3025,16 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>7</v>
@@ -2979,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>11</v>
@@ -2988,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,16 +3189,16 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ15" t="n">
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3152,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
@@ -3173,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
@@ -3182,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="n">
         <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.538</v>
+        <v>0.553</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,10 +3299,10 @@
         <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L16" t="n">
         <v>6.8</v>
@@ -3244,67 +3311,67 @@
         <v>19.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="P16" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.738</v>
+        <v>0.741</v>
       </c>
       <c r="R16" t="n">
         <v>10.8</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T16" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U16" t="n">
         <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y16" t="n">
         <v>4.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>19</v>
@@ -3313,46 +3380,46 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>14</v>
       </c>
       <c r="AM16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN16" t="n">
         <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>17</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU16" t="n">
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
@@ -3361,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -3411,34 +3478,34 @@
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M17" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="N17" t="n">
         <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S17" t="n">
         <v>29.5</v>
@@ -3450,28 +3517,28 @@
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
         <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3489,13 +3556,13 @@
         <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3507,22 +3574,22 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3531,22 +3598,22 @@
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3668,10 +3735,10 @@
         <v>24</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
@@ -3683,16 +3750,16 @@
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
         <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
@@ -3704,10 +3771,10 @@
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -3760,34 +3827,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>0.463</v>
+        <v>0.475</v>
       </c>
       <c r="H19" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L19" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N19" t="n">
         <v>0.376</v>
@@ -3796,52 +3863,52 @@
         <v>20.3</v>
       </c>
       <c r="P19" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R19" t="n">
         <v>11.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T19" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V19" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W19" t="n">
         <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.8</v>
+        <v>99.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3</v>
+        <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -3850,25 +3917,25 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>7</v>
@@ -3877,7 +3944,7 @@
         <v>8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>14</v>
@@ -3886,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU19" t="n">
         <v>29</v>
@@ -3895,25 +3962,25 @@
         <v>12</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB19" t="n">
         <v>13</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>13</v>
       </c>
       <c r="G20" t="n">
-        <v>0.649</v>
+        <v>0.639</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
@@ -3960,70 +4027,70 @@
         <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.383</v>
+        <v>0.388</v>
       </c>
       <c r="O20" t="n">
         <v>18.4</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S20" t="n">
         <v>29.3</v>
       </c>
       <c r="T20" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U20" t="n">
         <v>19.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC20" t="n">
         <v>3.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4035,7 +4102,7 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
         <v>28</v>
@@ -4044,31 +4111,31 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU20" t="n">
         <v>26</v>
@@ -4077,25 +4144,25 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA20" t="n">
         <v>13</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>15</v>
       </c>
       <c r="BB20" t="n">
         <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J21" t="n">
-        <v>86.2</v>
+        <v>86.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L21" t="n">
         <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O21" t="n">
         <v>17.7</v>
       </c>
       <c r="P21" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.801</v>
+        <v>0.799</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S21" t="n">
         <v>31.2</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U21" t="n">
         <v>21.6</v>
       </c>
       <c r="V21" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
@@ -4196,25 +4263,25 @@
         <v>18.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4241,7 +4308,7 @@
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
         <v>15</v>
@@ -4253,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="AE22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF22" t="n">
         <v>30</v>
@@ -4396,7 +4463,7 @@
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>16</v>
@@ -4435,13 +4502,13 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
         <v>20</v>
@@ -4450,10 +4517,10 @@
         <v>21</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB22" t="n">
         <v>25</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
         <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4506,7 +4573,7 @@
         <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K23" t="n">
         <v>0.461</v>
@@ -4515,34 +4582,34 @@
         <v>10.5</v>
       </c>
       <c r="M23" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.403</v>
+        <v>0.402</v>
       </c>
       <c r="O23" t="n">
         <v>19.1</v>
       </c>
       <c r="P23" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.719</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
         <v>42.9</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
         <v>7.4</v>
@@ -4557,16 +4624,16 @@
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4617,13 +4684,13 @@
         <v>5</v>
       </c>
       <c r="AU23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW23" t="n">
         <v>13</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.487</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="O24" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.742</v>
+        <v>0.747</v>
       </c>
       <c r="R24" t="n">
         <v>12.7</v>
@@ -4718,22 +4785,22 @@
         <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U24" t="n">
         <v>20.6</v>
       </c>
       <c r="V24" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W24" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X24" t="n">
         <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z24" t="n">
         <v>20.3</v>
@@ -4742,16 +4809,16 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
@@ -4760,16 +4827,16 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4793,16 +4860,16 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>7</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>8</v>
@@ -4817,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4960,7 +5027,7 @@
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>6</v>
@@ -4969,10 +5036,10 @@
         <v>6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS25" t="n">
         <v>7</v>
@@ -4981,7 +5048,7 @@
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -5046,34 +5113,34 @@
         <v>0.615</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="J26" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M26" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.385</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5085,37 +5152,37 @@
         <v>40.6</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>8</v>
@@ -5124,16 +5191,16 @@
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5145,13 +5212,13 @@
         <v>5</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5169,25 +5236,25 @@
         <v>4</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
         <v>14</v>
       </c>
-      <c r="BA26" t="n">
-        <v>12</v>
-      </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5373,7 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
@@ -5315,7 +5382,7 @@
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
@@ -5333,31 +5400,31 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
         <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.658</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.401</v>
+        <v>0.404</v>
       </c>
       <c r="O28" t="n">
         <v>14.8</v>
@@ -5437,22 +5504,22 @@
         <v>19.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R28" t="n">
         <v>8.4</v>
       </c>
       <c r="S28" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T28" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U28" t="n">
         <v>21.9</v>
       </c>
       <c r="V28" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
         <v>5.6</v>
@@ -5467,16 +5534,16 @@
         <v>18.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC28" t="n">
         <v>2.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5485,13 +5552,13 @@
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
@@ -5506,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
         <v>7</v>
@@ -5551,7 +5618,7 @@
         <v>20</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -5670,31 +5737,31 @@
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5718,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>0.585</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J30" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O30" t="n">
         <v>21.3</v>
       </c>
       <c r="P30" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T30" t="n">
-        <v>41.3</v>
+        <v>41.6</v>
       </c>
       <c r="U30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="V30" t="n">
         <v>15.3</v>
@@ -5825,34 +5892,34 @@
         <v>4.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
         <v>22.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5873,19 +5940,19 @@
         <v>24</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5897,25 +5964,25 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX30" t="n">
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>25</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
         <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>-6.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>20</v>
@@ -6046,7 +6113,7 @@
         <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>23</v>
@@ -6073,22 +6140,22 @@
         <v>26</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-17-2008-09</t>
+          <t>2009-01-17</t>
         </is>
       </c>
     </row>
